--- a/Assets/SceneData/MasterDatas/Editor/PartDatas.xlsx
+++ b/Assets/SceneData/MasterDatas/Editor/PartDatas.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>PARTID</t>
   </si>
   <si>
+    <t>NAME</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -61,40 +64,52 @@
     <t>h00001</t>
   </si>
   <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>TestHead</t>
+  </si>
+  <si>
+    <t>LEGTYPE</t>
+  </si>
+  <si>
+    <t>ADDEFFECTYPE</t>
+  </si>
+  <si>
+    <t>l00001</t>
+  </si>
+  <si>
+    <t>TestLeg</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>SHOTTYPE</t>
+  </si>
+  <si>
+    <t>w00001</t>
+  </si>
+  <si>
+    <t>TestWepon</t>
+  </si>
+  <si>
+    <t>あしだよ</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>LOAD</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>SHOTTYPE</t>
-  </si>
-  <si>
-    <t>LEGTYPE</t>
-  </si>
-  <si>
-    <t>ADDEFFECTYPE</t>
-  </si>
-  <si>
-    <t>w00001</t>
-  </si>
-  <si>
-    <t>l00001</t>
-  </si>
-  <si>
     <t>すごい武器</t>
   </si>
   <si>
-    <t>あしだよ</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>a00001</t>
+  </si>
+  <si>
+    <t>TestAcc</t>
   </si>
 </sst>
 </file>
@@ -218,19 +233,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
         <v>120.0</v>
       </c>
-      <c r="C2" s="2">
-        <v>20.0</v>
-      </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
@@ -239,28 +257,31 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="2">
         <v>50.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>40.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>10.0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0.5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.0</v>
       </c>
       <c r="L2" s="2">
         <v>1.0</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -301,54 +322,60 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="2">
         <v>20.0</v>
       </c>
       <c r="E2" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F2" s="2">
         <v>80.0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.0</v>
-      </c>
       <c r="G2" s="2">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" s="2">
         <v>20.0</v>
       </c>
       <c r="I2" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J2" s="2">
         <v>50.0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1.0</v>
       </c>
-      <c r="K2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
+      <c r="L2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -389,54 +416,60 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
         <v>90.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>60.0</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
       <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
         <v>50.0</v>
       </c>
-      <c r="G2" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="2">
         <v>10.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>200.0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>2.0</v>
       </c>
-      <c r="K2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
+      <c r="L2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -453,7 +486,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -477,47 +510,53 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20.0</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="D2" s="3">
         <v>10.0</v>
       </c>
-      <c r="D2" s="3">
-        <v>20.0</v>
-      </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F2" s="3">
         <v>0.0</v>
       </c>
       <c r="G2" s="3">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" s="3">
         <v>10.0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="J2" s="3">
         <v>0.0</v>
       </c>
       <c r="K2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="3">
         <v>0.0</v>
       </c>
     </row>
